--- a/public/template/en-us/connection_template.xlsx
+++ b/public/template/en-us/connection_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fzzf/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1585315-7AA3-FF4E-9CC4-E79C5F49853E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8446A941-311C-E14D-9DF6-D089B535CE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="2220" windowWidth="32360" windowHeight="17440" xr2:uid="{18472E68-B775-9944-86EC-D9EC4E7A8A18}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33120" windowHeight="21580" xr2:uid="{18472E68-B775-9944-86EC-D9EC4E7A8A18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,20 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resourceGroups</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,18 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>readonlyUsername</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>readonlyPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defaultSchema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sysTenantUsername</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,11 +73,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>passwordSaved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clusterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +100,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.3"/>
+      <color rgb="FF9876AA"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,11 +131,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,33 +455,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC6230F-C2F4-BB44-A6AC-2B51BADF01D0}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="9" width="19.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.1640625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="20.33203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,53 +490,41 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="H5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P19:P1048576" xr:uid="{9D4902E3-C11A-4545-B9B0-3B1E2DE8A6A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K1048576" xr:uid="{9D4902E3-C11A-4545-B9B0-3B1E2DE8A6A2}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576 C1:C1048576" xr:uid="{7D0FE33E-FD11-744E-AFB1-EE0D94943804}">
-      <formula1>"true,false"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{9D39D2B6-4BBE-704D-9CD0-AAA8F00B21CC}">
+      <formula1>"OB_MYSQL,OB_ORACLE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{8DBF2836-6357-1245-BAC4-DCD21F5DAB23}">
-      <formula1>"OB_MYSQL,OB_ORACLE,CLOUD_OB_MYSQL,CLOUD_OB_ORACLE,ODP_SHARDING_OB_MYSQL"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{CBDC926C-BA75-EB4F-8A12-552A6F482C44}">
+      <formula1>"default,dev,prod,sit"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/en-us/connection_template.xlsx
+++ b/public/template/en-us/connection_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fzzf/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8446A941-311C-E14D-9DF6-D089B535CE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298752EE-0879-9D46-88E7-8CD8EB6B35E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="33120" windowHeight="21580" xr2:uid="{18472E68-B775-9944-86EC-D9EC4E7A8A18}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,13 +100,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.3"/>
-      <color rgb="FF9876AA"/>
-      <name val="Monaco"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,14 +124,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC6230F-C2F4-BB44-A6AC-2B51BADF01D0}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -511,13 +501,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="H5" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K1048576" xr:uid="{9D4902E3-C11A-4545-B9B0-3B1E2DE8A6A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{9D4902E3-C11A-4545-B9B0-3B1E2DE8A6A2}">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{9D39D2B6-4BBE-704D-9CD0-AAA8F00B21CC}">
